--- a/data/raw/ilsfa_report_2.xlsx
+++ b/data/raw/ilsfa_report_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elevateenergy1-my.sharepoint.com/personal/emily_chan_elevatenp_org/Documents/Desktop/ILSFA/AV ICC Project Application Reports (I, II, III)/PY7/April 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elevateenergy1-my.sharepoint.com/personal/emily_chan_elevatenp_org/Documents/Desktop/ILSFA/AV ICC Project Application Reports (I, II, III)/PY7/May 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9A1331AF-9F10-4047-B8FD-86939D442256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552B5A26-9775-417B-89E8-B56EA4050DC7}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{0F30657D-FBC6-49B3-A882-0CD723C9D579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A2EC37A-23A2-4805-9083-3927F2880FD3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F3C916B-CDC2-4420-B8C4-884048475488}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7F3C916B-CDC2-4420-B8C4-884048475488}"/>
   </bookViews>
   <sheets>
     <sheet name="(2) ICC Approved" sheetId="2" r:id="rId1"/>
@@ -4979,33 +4979,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6A854B-8168-43AE-A5A9-CE1E110299CA}">
   <dimension ref="A1:S863"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="72.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="D1" s="9" t="s">
         <v>738</v>
@@ -5014,7 +5014,7 @@
       <c r="F1" s="9"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>113</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>33</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>54</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>26</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>26</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>26</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>26</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>26</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>113</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>26</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>26</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>54</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>99</v>
       </c>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>99</v>
       </c>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>99</v>
       </c>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>99</v>
       </c>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>99</v>
       </c>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>99</v>
       </c>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>99</v>
       </c>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>99</v>
       </c>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>99</v>
       </c>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>99</v>
       </c>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>99</v>
       </c>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>99</v>
       </c>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>99</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>99</v>
       </c>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>99</v>
       </c>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>99</v>
       </c>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>99</v>
       </c>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>99</v>
       </c>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>99</v>
       </c>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>99</v>
       </c>
@@ -11800,7 +11800,7 @@
       </c>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>99</v>
       </c>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>99</v>
       </c>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>99</v>
       </c>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>99</v>
       </c>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>99</v>
       </c>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>99</v>
       </c>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>99</v>
       </c>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>99</v>
       </c>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>99</v>
       </c>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>99</v>
       </c>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>99</v>
       </c>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>99</v>
       </c>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>99</v>
       </c>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>99</v>
       </c>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>99</v>
       </c>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>99</v>
       </c>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>99</v>
       </c>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>99</v>
       </c>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>99</v>
       </c>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>99</v>
       </c>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>99</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>99</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>99</v>
       </c>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>99</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>99</v>
       </c>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>99</v>
       </c>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>99</v>
       </c>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>99</v>
       </c>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>99</v>
       </c>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>99</v>
       </c>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>99</v>
       </c>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>99</v>
       </c>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>99</v>
       </c>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>99</v>
       </c>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>99</v>
       </c>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>99</v>
       </c>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>99</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>99</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>104</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>104</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>104</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>99</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>104</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>104</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>106</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>104</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>99</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>99</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>99</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>99</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>99</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>99</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>99</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>99</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>99</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>99</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>99</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>99</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>99</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>99</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>99</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>99</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>99</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>99</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>99</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>99</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>99</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>99</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>99</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>99</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>104</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>99</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>99</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>99</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>99</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>99</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>99</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>99</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>99</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>99</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>99</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>99</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>99</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>99</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>99</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>99</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>99</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>99</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>99</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>99</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>99</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>99</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>99</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>99</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>99</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>104</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>99</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>99</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>99</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>99</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>99</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>99</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>99</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>99</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>99</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>99</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>99</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>99</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>99</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>99</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>99</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>99</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>99</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>99</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>104</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>99</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>99</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>104</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>99</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>99</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>99</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>99</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>99</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>99</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>99</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>99</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>99</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>99</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>99</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>99</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>99</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>99</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>99</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>99</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>99</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>99</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>99</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>99</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>99</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>99</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>99</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>99</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>99</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>99</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>99</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>99</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>99</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>99</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>104</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>99</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>99</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>99</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>99</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>104</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>99</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>99</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>99</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>99</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>99</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>99</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>570</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>99</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>99</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>99</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>99</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>99</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>99</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>99</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>99</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>99</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>99</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>99</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>99</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>99</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>99</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>99</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>99</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>99</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>99</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>99</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>99</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>99</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>99</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>99</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>99</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>99</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>99</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>99</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>99</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>99</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>99</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>99</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>99</v>
       </c>
@@ -22821,7 +22821,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>99</v>
       </c>
@@ -22878,7 +22878,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>99</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>99</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>99</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>99</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>99</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>99</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>99</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>99</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>99</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>99</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>99</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>99</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>104</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>99</v>
       </c>
@@ -23676,7 +23676,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>99</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>99</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>99</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>99</v>
       </c>
@@ -23904,7 +23904,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>99</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>99</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>99</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>99</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>104</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>99</v>
       </c>
@@ -24244,7 +24244,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>99</v>
       </c>
@@ -24301,7 +24301,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>99</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>99</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>99</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>99</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>99</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>99</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>99</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>99</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>99</v>
       </c>
@@ -24812,7 +24812,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>99</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>99</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>99</v>
       </c>
@@ -24983,7 +24983,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>99</v>
       </c>
@@ -25038,7 +25038,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>99</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>104</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>104</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>99</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>104</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>99</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>99</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>99</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>104</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>99</v>
       </c>
@@ -25602,7 +25602,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>99</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>99</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>99</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>99</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>99</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>99</v>
       </c>
@@ -25944,7 +25944,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>99</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>104</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>99</v>
       </c>
@@ -26115,7 +26115,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>104</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>99</v>
       </c>
@@ -26229,7 +26229,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>99</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>99</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>104</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>99</v>
       </c>
@@ -26455,7 +26455,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>99</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>99</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>99</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>99</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>99</v>
       </c>
@@ -26740,7 +26740,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>99</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>99</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>99</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>99</v>
       </c>
@@ -26966,7 +26966,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>54</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>54</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>19</v>
       </c>
@@ -27137,7 +27137,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>113</v>
       </c>
@@ -27196,7 +27196,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>113</v>
       </c>
@@ -27255,7 +27255,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>113</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>104</v>
       </c>
@@ -27371,7 +27371,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>54</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>99</v>
       </c>
@@ -27485,7 +27485,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>99</v>
       </c>
@@ -27542,7 +27542,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>99</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>99</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>104</v>
       </c>
@@ -27709,7 +27709,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>99</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>99</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>99</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>104</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>99</v>
       </c>
@@ -27994,7 +27994,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>99</v>
       </c>
@@ -28051,7 +28051,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>99</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>99</v>
       </c>
@@ -28165,7 +28165,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>99</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>99</v>
       </c>
@@ -28275,7 +28275,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>99</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>99</v>
       </c>
@@ -28389,7 +28389,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>104</v>
       </c>
@@ -28446,7 +28446,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>99</v>
       </c>
@@ -28503,7 +28503,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>104</v>
       </c>
@@ -28558,7 +28558,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>99</v>
       </c>
@@ -28615,7 +28615,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>99</v>
       </c>
@@ -28672,7 +28672,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>99</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>99</v>
       </c>
@@ -28784,7 +28784,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>99</v>
       </c>
@@ -28841,7 +28841,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>99</v>
       </c>
@@ -28898,7 +28898,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>99</v>
       </c>
@@ -28955,7 +28955,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>99</v>
       </c>
@@ -29012,7 +29012,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>99</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>99</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>99</v>
       </c>
@@ -29183,7 +29183,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>104</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>99</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>99</v>
       </c>
@@ -29354,7 +29354,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>99</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>99</v>
       </c>
@@ -29468,7 +29468,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>99</v>
       </c>
@@ -29525,7 +29525,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>99</v>
       </c>
@@ -29582,7 +29582,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>99</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>99</v>
       </c>
@@ -29694,7 +29694,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>99</v>
       </c>
@@ -29751,7 +29751,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>99</v>
       </c>
@@ -29808,7 +29808,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>99</v>
       </c>
@@ -29865,7 +29865,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>99</v>
       </c>
@@ -29922,7 +29922,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>104</v>
       </c>
@@ -29977,7 +29977,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>104</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>99</v>
       </c>
@@ -30091,7 +30091,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>99</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>104</v>
       </c>
@@ -30205,7 +30205,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>99</v>
       </c>
@@ -30262,7 +30262,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>99</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>99</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>99</v>
       </c>
@@ -30431,7 +30431,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>99</v>
       </c>
@@ -30488,7 +30488,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>99</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>99</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>99</v>
       </c>
@@ -30657,7 +30657,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>104</v>
       </c>
@@ -30714,7 +30714,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>99</v>
       </c>
@@ -30771,7 +30771,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>99</v>
       </c>
@@ -30828,7 +30828,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>99</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>104</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>104</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>104</v>
       </c>
@@ -31052,7 +31052,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>104</v>
       </c>
@@ -31109,7 +31109,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>54</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>54</v>
       </c>
@@ -31223,7 +31223,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>54</v>
       </c>
@@ -31282,7 +31282,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="472" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>104</v>
       </c>
@@ -31339,7 +31339,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="473" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>54</v>
       </c>
@@ -31398,7 +31398,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="474" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>54</v>
       </c>
@@ -31457,7 +31457,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="475" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>104</v>
       </c>
@@ -31512,7 +31512,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="476" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>104</v>
       </c>
@@ -31569,7 +31569,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>54</v>
       </c>
@@ -31626,7 +31626,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="478" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>104</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="479" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>104</v>
       </c>
@@ -31738,7 +31738,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="480" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>99</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="481" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>104</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="482" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>104</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="483" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>99</v>
       </c>
@@ -31966,7 +31966,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="484" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>99</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>54</v>
       </c>
@@ -32082,7 +32082,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="486" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>99</v>
       </c>
@@ -32139,7 +32139,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="487" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>99</v>
       </c>
@@ -32194,7 +32194,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="488" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>99</v>
       </c>
@@ -32251,7 +32251,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="489" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>99</v>
       </c>
@@ -32308,7 +32308,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>54</v>
       </c>
@@ -32367,7 +32367,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>54</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>54</v>
       </c>
@@ -32485,7 +32485,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="493" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>99</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>54</v>
       </c>
@@ -32599,7 +32599,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="495" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>104</v>
       </c>
@@ -32656,7 +32656,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="496" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>104</v>
       </c>
@@ -32713,7 +32713,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="497" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>54</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>106</v>
       </c>
@@ -32831,7 +32831,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>54</v>
       </c>
@@ -32890,7 +32890,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="500" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>99</v>
       </c>
@@ -32947,7 +32947,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="501" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>54</v>
       </c>
@@ -33004,7 +33004,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="502" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>99</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="503" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>99</v>
       </c>
@@ -33118,7 +33118,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="504" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>104</v>
       </c>
@@ -33173,7 +33173,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="505" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>99</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="506" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>99</v>
       </c>
@@ -33287,7 +33287,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="507" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>99</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="508" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>104</v>
       </c>
@@ -33401,7 +33401,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="509" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>104</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>106</v>
       </c>
@@ -33517,7 +33517,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="511" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>99</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="512" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>104</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="513" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>99</v>
       </c>
@@ -33686,7 +33686,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>99</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>99</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>104</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>99</v>
       </c>
@@ -33914,7 +33914,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>99</v>
       </c>
@@ -33969,7 +33969,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>99</v>
       </c>
@@ -34026,7 +34026,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>99</v>
       </c>
@@ -34083,7 +34083,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>99</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="522" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>99</v>
       </c>
@@ -34197,7 +34197,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="523" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>99</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>99</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>104</v>
       </c>
@@ -34366,7 +34366,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>99</v>
       </c>
@@ -34421,7 +34421,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>99</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>99</v>
       </c>
@@ -34535,7 +34535,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>104</v>
       </c>
@@ -34590,7 +34590,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>99</v>
       </c>
@@ -34647,7 +34647,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>99</v>
       </c>
@@ -34702,7 +34702,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>34</v>
       </c>
@@ -34759,7 +34759,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>99</v>
       </c>
@@ -34816,7 +34816,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>104</v>
       </c>
@@ -34873,7 +34873,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>99</v>
       </c>
@@ -34930,7 +34930,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>99</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>99</v>
       </c>
@@ -35042,7 +35042,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>99</v>
       </c>
@@ -35097,7 +35097,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="539" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>99</v>
       </c>
@@ -35154,7 +35154,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="540" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>104</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="541" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>99</v>
       </c>
@@ -35266,7 +35266,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="542" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>99</v>
       </c>
@@ -35323,7 +35323,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="543" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>99</v>
       </c>
@@ -35380,7 +35380,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="544" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>99</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="545" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>99</v>
       </c>
@@ -35492,7 +35492,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="546" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>99</v>
       </c>
@@ -35549,7 +35549,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="547" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>99</v>
       </c>
@@ -35606,7 +35606,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="548" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>99</v>
       </c>
@@ -35663,7 +35663,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>16</v>
       </c>
@@ -35722,7 +35722,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="550" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>99</v>
       </c>
@@ -35777,7 +35777,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>54</v>
       </c>
@@ -35834,7 +35834,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="552" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>99</v>
       </c>
@@ -35891,7 +35891,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="553" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>99</v>
       </c>
@@ -35948,7 +35948,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>32</v>
       </c>
@@ -36005,7 +36005,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="555" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>99</v>
       </c>
@@ -36062,7 +36062,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="556" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>99</v>
       </c>
@@ -36119,7 +36119,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="557" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>99</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>99</v>
       </c>
@@ -36233,7 +36233,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="559" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>99</v>
       </c>
@@ -36288,7 +36288,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="560" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>99</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="561" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>104</v>
       </c>
@@ -36400,7 +36400,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="562" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>104</v>
       </c>
@@ -36457,7 +36457,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="563" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>104</v>
       </c>
@@ -36514,7 +36514,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="564" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>99</v>
       </c>
@@ -36571,7 +36571,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="565" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>104</v>
       </c>
@@ -36628,7 +36628,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="566" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>104</v>
       </c>
@@ -36685,7 +36685,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>104</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="568" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>104</v>
       </c>
@@ -36799,7 +36799,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="569" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>99</v>
       </c>
@@ -36856,7 +36856,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="570" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>104</v>
       </c>
@@ -36913,7 +36913,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="571" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>99</v>
       </c>
@@ -36970,7 +36970,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="572" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>104</v>
       </c>
@@ -37027,7 +37027,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>104</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="574" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>99</v>
       </c>
@@ -37141,7 +37141,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="575" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>104</v>
       </c>
@@ -37196,7 +37196,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="576" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>99</v>
       </c>
@@ -37253,7 +37253,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="577" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>99</v>
       </c>
@@ -37310,7 +37310,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="578" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>99</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="579" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>99</v>
       </c>
@@ -37424,7 +37424,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="580" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>99</v>
       </c>
@@ -37481,7 +37481,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="581" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>104</v>
       </c>
@@ -37536,7 +37536,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="582" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>104</v>
       </c>
@@ -37593,7 +37593,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="583" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>104</v>
       </c>
@@ -37650,7 +37650,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="584" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>104</v>
       </c>
@@ -37707,7 +37707,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="585" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>99</v>
       </c>
@@ -37764,7 +37764,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>669</v>
       </c>
@@ -37823,7 +37823,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>669</v>
       </c>
@@ -37882,7 +37882,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>669</v>
       </c>
@@ -37941,7 +37941,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="589" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>104</v>
       </c>
@@ -37998,7 +37998,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>669</v>
       </c>
@@ -38057,7 +38057,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="591" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>99</v>
       </c>
@@ -38114,7 +38114,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="592" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>99</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="593" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>99</v>
       </c>
@@ -38228,7 +38228,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="594" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>104</v>
       </c>
@@ -38285,7 +38285,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="595" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>99</v>
       </c>
@@ -38342,7 +38342,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="596" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>99</v>
       </c>
@@ -38399,7 +38399,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="597" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>99</v>
       </c>
@@ -38456,7 +38456,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="598" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>99</v>
       </c>
@@ -38513,7 +38513,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="599" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>99</v>
       </c>
@@ -38570,7 +38570,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="600" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>99</v>
       </c>
@@ -38627,7 +38627,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="601" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>99</v>
       </c>
@@ -38684,7 +38684,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="602" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>104</v>
       </c>
@@ -38741,7 +38741,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="603" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>104</v>
       </c>
@@ -38798,7 +38798,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="604" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>113</v>
       </c>
@@ -38855,7 +38855,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="605" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>104</v>
       </c>
@@ -38912,7 +38912,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="606" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>104</v>
       </c>
@@ -38969,7 +38969,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="607" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>104</v>
       </c>
@@ -39026,7 +39026,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="608" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>104</v>
       </c>
@@ -39083,7 +39083,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="609" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>104</v>
       </c>
@@ -39140,7 +39140,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="610" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>104</v>
       </c>
@@ -39197,7 +39197,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="611" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>104</v>
       </c>
@@ -39254,7 +39254,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="612" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>104</v>
       </c>
@@ -39311,7 +39311,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="613" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>104</v>
       </c>
@@ -39368,7 +39368,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="614" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>104</v>
       </c>
@@ -39425,7 +39425,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="615" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>669</v>
       </c>
@@ -39484,7 +39484,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="616" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>669</v>
       </c>
@@ -39543,7 +39543,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>104</v>
       </c>
@@ -39602,7 +39602,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>104</v>
       </c>
@@ -39661,7 +39661,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="619" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>99</v>
       </c>
@@ -39718,7 +39718,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="620" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>104</v>
       </c>
@@ -39775,7 +39775,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="621" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>104</v>
       </c>
@@ -39832,7 +39832,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="622" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>32</v>
       </c>
@@ -39889,7 +39889,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="623" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>104</v>
       </c>
@@ -39946,7 +39946,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="624" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>673</v>
       </c>
@@ -40005,7 +40005,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="625" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>104</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="626" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>104</v>
       </c>
@@ -40119,7 +40119,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="627" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>104</v>
       </c>
@@ -40176,7 +40176,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="628" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>104</v>
       </c>
@@ -40233,7 +40233,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>32</v>
       </c>
@@ -40290,7 +40290,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="630" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>104</v>
       </c>
@@ -40347,7 +40347,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="631" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>104</v>
       </c>
@@ -40404,7 +40404,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="632" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>104</v>
       </c>
@@ -40461,7 +40461,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>707</v>
       </c>
@@ -40518,7 +40518,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>54</v>
       </c>
@@ -40577,7 +40577,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="635" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>104</v>
       </c>
@@ -40634,7 +40634,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="636" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>104</v>
       </c>
@@ -40691,7 +40691,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="637" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>104</v>
       </c>
@@ -40748,7 +40748,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="638" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>104</v>
       </c>
@@ -40803,7 +40803,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>32</v>
       </c>
@@ -40860,7 +40860,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="640" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>104</v>
       </c>
@@ -40917,7 +40917,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="641" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>104</v>
       </c>
@@ -40974,7 +40974,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>32</v>
       </c>
@@ -41031,7 +41031,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="643" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>104</v>
       </c>
@@ -41088,7 +41088,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="644" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>104</v>
       </c>
@@ -41145,7 +41145,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="645" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>104</v>
       </c>
@@ -41202,7 +41202,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>669</v>
       </c>
@@ -41261,7 +41261,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="647" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>104</v>
       </c>
@@ -41318,7 +41318,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="648" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>104</v>
       </c>
@@ -41375,7 +41375,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="649" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>104</v>
       </c>
@@ -41432,7 +41432,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="650" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>104</v>
       </c>
@@ -41489,7 +41489,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="651" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>104</v>
       </c>
@@ -41544,7 +41544,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="652" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>104</v>
       </c>
@@ -41599,7 +41599,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="653" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>104</v>
       </c>
@@ -41656,7 +41656,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="654" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>104</v>
       </c>
@@ -41713,7 +41713,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="655" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>104</v>
       </c>
@@ -41770,7 +41770,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="656" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>104</v>
       </c>
@@ -41827,7 +41827,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="657" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>104</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="658" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>104</v>
       </c>
@@ -41941,7 +41941,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="659" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>104</v>
       </c>
@@ -41998,7 +41998,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="660" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>104</v>
       </c>
@@ -42055,7 +42055,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="661" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>99</v>
       </c>
@@ -42112,7 +42112,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="662" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>99</v>
       </c>
@@ -42169,7 +42169,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="663" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>99</v>
       </c>
@@ -42226,7 +42226,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="664" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>99</v>
       </c>
@@ -42283,7 +42283,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="665" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>104</v>
       </c>
@@ -42340,7 +42340,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="666" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>99</v>
       </c>
@@ -42397,7 +42397,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="667" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>104</v>
       </c>
@@ -42454,7 +42454,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="668" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>711</v>
       </c>
@@ -42511,7 +42511,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="669" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>99</v>
       </c>
@@ -42568,7 +42568,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="670" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>104</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="671" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>99</v>
       </c>
@@ -42682,7 +42682,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="672" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>99</v>
       </c>
@@ -42739,7 +42739,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="673" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>99</v>
       </c>
@@ -42796,7 +42796,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="674" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>99</v>
       </c>
@@ -42853,7 +42853,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>34</v>
       </c>
@@ -42912,7 +42912,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="676" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>104</v>
       </c>
@@ -42969,7 +42969,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="677" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>54</v>
       </c>
@@ -43026,7 +43026,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="678" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>54</v>
       </c>
@@ -43083,7 +43083,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>673</v>
       </c>
@@ -43142,7 +43142,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="680" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>725</v>
       </c>
@@ -43197,7 +43197,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="681" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>725</v>
       </c>
@@ -43252,7 +43252,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="682" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>725</v>
       </c>
@@ -43307,7 +43307,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="683" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>725</v>
       </c>
@@ -43362,7 +43362,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="684" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>725</v>
       </c>
@@ -43417,7 +43417,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="685" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>725</v>
       </c>
@@ -43472,7 +43472,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="686" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>725</v>
       </c>
@@ -43527,7 +43527,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="687" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>725</v>
       </c>
@@ -43582,7 +43582,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="688" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>725</v>
       </c>
@@ -43637,7 +43637,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="689" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>725</v>
       </c>
@@ -43696,7 +43696,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="690" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>736</v>
       </c>
@@ -43751,7 +43751,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="2"/>
@@ -43772,7 +43772,7 @@
       <c r="R691" s="2"/>
       <c r="S691" s="1"/>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="2"/>
@@ -43793,7 +43793,7 @@
       <c r="R692" s="2"/>
       <c r="S692" s="1"/>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="2"/>
@@ -43814,7 +43814,7 @@
       <c r="R693" s="2"/>
       <c r="S693" s="1"/>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="2"/>
@@ -43835,7 +43835,7 @@
       <c r="R694" s="2"/>
       <c r="S694" s="1"/>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="2"/>
@@ -43856,7 +43856,7 @@
       <c r="R695" s="2"/>
       <c r="S695" s="1"/>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="2"/>
@@ -43877,7 +43877,7 @@
       <c r="R696" s="2"/>
       <c r="S696" s="1"/>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="2"/>
@@ -43898,7 +43898,7 @@
       <c r="R697" s="2"/>
       <c r="S697" s="1"/>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="2"/>
@@ -43919,7 +43919,7 @@
       <c r="R698" s="2"/>
       <c r="S698" s="1"/>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="2"/>
@@ -43940,7 +43940,7 @@
       <c r="R699" s="2"/>
       <c r="S699" s="1"/>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="2"/>
@@ -43961,7 +43961,7 @@
       <c r="R700" s="2"/>
       <c r="S700" s="1"/>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="2"/>
@@ -43982,7 +43982,7 @@
       <c r="R701" s="2"/>
       <c r="S701" s="1"/>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="2"/>
@@ -44003,7 +44003,7 @@
       <c r="R702" s="2"/>
       <c r="S702" s="1"/>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="2"/>
@@ -44024,7 +44024,7 @@
       <c r="R703" s="2"/>
       <c r="S703" s="1"/>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="2"/>
@@ -44045,7 +44045,7 @@
       <c r="R704" s="2"/>
       <c r="S704" s="1"/>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="2"/>
@@ -44066,7 +44066,7 @@
       <c r="R705" s="2"/>
       <c r="S705" s="1"/>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="2"/>
@@ -44087,7 +44087,7 @@
       <c r="R706" s="2"/>
       <c r="S706" s="1"/>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="2"/>
@@ -44108,7 +44108,7 @@
       <c r="R707" s="2"/>
       <c r="S707" s="1"/>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="2"/>
@@ -44129,7 +44129,7 @@
       <c r="R708" s="2"/>
       <c r="S708" s="1"/>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="2"/>
@@ -44150,7 +44150,7 @@
       <c r="R709" s="2"/>
       <c r="S709" s="1"/>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="2"/>
@@ -44171,7 +44171,7 @@
       <c r="R710" s="2"/>
       <c r="S710" s="1"/>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="2"/>
@@ -44192,7 +44192,7 @@
       <c r="R711" s="2"/>
       <c r="S711" s="1"/>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="2"/>
@@ -44213,7 +44213,7 @@
       <c r="R712" s="2"/>
       <c r="S712" s="1"/>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="2"/>
@@ -44234,7 +44234,7 @@
       <c r="R713" s="2"/>
       <c r="S713" s="1"/>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="2"/>
@@ -44255,7 +44255,7 @@
       <c r="R714" s="2"/>
       <c r="S714" s="1"/>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="2"/>
@@ -44276,7 +44276,7 @@
       <c r="R715" s="2"/>
       <c r="S715" s="1"/>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="2"/>
@@ -44297,7 +44297,7 @@
       <c r="R716" s="2"/>
       <c r="S716" s="1"/>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="2"/>
@@ -44318,7 +44318,7 @@
       <c r="R717" s="2"/>
       <c r="S717" s="1"/>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="2"/>
@@ -44339,7 +44339,7 @@
       <c r="R718" s="2"/>
       <c r="S718" s="1"/>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="2"/>
@@ -44360,7 +44360,7 @@
       <c r="R719" s="2"/>
       <c r="S719" s="1"/>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="2"/>
@@ -44381,7 +44381,7 @@
       <c r="R720" s="2"/>
       <c r="S720" s="1"/>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="2"/>
@@ -44402,7 +44402,7 @@
       <c r="R721" s="2"/>
       <c r="S721" s="1"/>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="2"/>
@@ -44423,7 +44423,7 @@
       <c r="R722" s="2"/>
       <c r="S722" s="1"/>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="2"/>
@@ -44444,7 +44444,7 @@
       <c r="R723" s="2"/>
       <c r="S723" s="1"/>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="2"/>
@@ -44465,7 +44465,7 @@
       <c r="R724" s="2"/>
       <c r="S724" s="1"/>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="2"/>
@@ -44486,7 +44486,7 @@
       <c r="R725" s="2"/>
       <c r="S725" s="1"/>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="2"/>
@@ -44507,7 +44507,7 @@
       <c r="R726" s="2"/>
       <c r="S726" s="1"/>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="2"/>
@@ -44528,7 +44528,7 @@
       <c r="R727" s="2"/>
       <c r="S727" s="1"/>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="2"/>
@@ -44549,7 +44549,7 @@
       <c r="R728" s="2"/>
       <c r="S728" s="1"/>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="2"/>
@@ -44570,7 +44570,7 @@
       <c r="R729" s="2"/>
       <c r="S729" s="1"/>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="2"/>
@@ -44591,7 +44591,7 @@
       <c r="R730" s="2"/>
       <c r="S730" s="1"/>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="2"/>
@@ -44612,7 +44612,7 @@
       <c r="R731" s="2"/>
       <c r="S731" s="1"/>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="2"/>
@@ -44633,7 +44633,7 @@
       <c r="R732" s="2"/>
       <c r="S732" s="1"/>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="2"/>
@@ -44654,7 +44654,7 @@
       <c r="R733" s="2"/>
       <c r="S733" s="1"/>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="2"/>
@@ -44675,7 +44675,7 @@
       <c r="R734" s="2"/>
       <c r="S734" s="1"/>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="2"/>
@@ -44696,7 +44696,7 @@
       <c r="R735" s="2"/>
       <c r="S735" s="1"/>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="2"/>
@@ -44717,7 +44717,7 @@
       <c r="R736" s="2"/>
       <c r="S736" s="1"/>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="2"/>
@@ -44738,7 +44738,7 @@
       <c r="R737" s="2"/>
       <c r="S737" s="1"/>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="2"/>
@@ -44759,7 +44759,7 @@
       <c r="R738" s="2"/>
       <c r="S738" s="1"/>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="2"/>
@@ -44780,7 +44780,7 @@
       <c r="R739" s="2"/>
       <c r="S739" s="1"/>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="2"/>
@@ -44801,7 +44801,7 @@
       <c r="R740" s="2"/>
       <c r="S740" s="1"/>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="2"/>
@@ -44822,7 +44822,7 @@
       <c r="R741" s="2"/>
       <c r="S741" s="1"/>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="2"/>
@@ -44843,7 +44843,7 @@
       <c r="R742" s="2"/>
       <c r="S742" s="1"/>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="2"/>
@@ -44864,7 +44864,7 @@
       <c r="R743" s="2"/>
       <c r="S743" s="1"/>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="2"/>
@@ -44885,7 +44885,7 @@
       <c r="R744" s="2"/>
       <c r="S744" s="1"/>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="2"/>
@@ -44906,7 +44906,7 @@
       <c r="R745" s="2"/>
       <c r="S745" s="1"/>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="2"/>
@@ -44927,7 +44927,7 @@
       <c r="R746" s="2"/>
       <c r="S746" s="1"/>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="2"/>
@@ -44948,7 +44948,7 @@
       <c r="R747" s="2"/>
       <c r="S747" s="1"/>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="2"/>
@@ -44969,7 +44969,7 @@
       <c r="R748" s="2"/>
       <c r="S748" s="1"/>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="2"/>
@@ -44990,7 +44990,7 @@
       <c r="R749" s="2"/>
       <c r="S749" s="1"/>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="2"/>
@@ -45011,7 +45011,7 @@
       <c r="R750" s="2"/>
       <c r="S750" s="1"/>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="2"/>
@@ -45032,7 +45032,7 @@
       <c r="R751" s="2"/>
       <c r="S751" s="1"/>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="2"/>
@@ -45053,7 +45053,7 @@
       <c r="R752" s="2"/>
       <c r="S752" s="1"/>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="2"/>
@@ -45074,7 +45074,7 @@
       <c r="R753" s="2"/>
       <c r="S753" s="1"/>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="2"/>
@@ -45095,7 +45095,7 @@
       <c r="R754" s="2"/>
       <c r="S754" s="1"/>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="2"/>
@@ -45116,7 +45116,7 @@
       <c r="R755" s="2"/>
       <c r="S755" s="1"/>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="2"/>
@@ -45137,7 +45137,7 @@
       <c r="R756" s="2"/>
       <c r="S756" s="1"/>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="2"/>
@@ -45158,7 +45158,7 @@
       <c r="R757" s="2"/>
       <c r="S757" s="1"/>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="2"/>
@@ -45179,7 +45179,7 @@
       <c r="R758" s="2"/>
       <c r="S758" s="1"/>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="2"/>
@@ -45200,7 +45200,7 @@
       <c r="R759" s="2"/>
       <c r="S759" s="1"/>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="2"/>
@@ -45221,7 +45221,7 @@
       <c r="R760" s="2"/>
       <c r="S760" s="1"/>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="2"/>
@@ -45242,7 +45242,7 @@
       <c r="R761" s="2"/>
       <c r="S761" s="1"/>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="2"/>
@@ -45263,7 +45263,7 @@
       <c r="R762" s="2"/>
       <c r="S762" s="1"/>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="2"/>
@@ -45284,7 +45284,7 @@
       <c r="R763" s="2"/>
       <c r="S763" s="1"/>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="2"/>
@@ -45305,7 +45305,7 @@
       <c r="R764" s="2"/>
       <c r="S764" s="1"/>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="2"/>
@@ -45326,7 +45326,7 @@
       <c r="R765" s="2"/>
       <c r="S765" s="1"/>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="2"/>
@@ -45347,7 +45347,7 @@
       <c r="R766" s="2"/>
       <c r="S766" s="1"/>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="2"/>
@@ -45368,7 +45368,7 @@
       <c r="R767" s="2"/>
       <c r="S767" s="1"/>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="2"/>
@@ -45389,7 +45389,7 @@
       <c r="R768" s="2"/>
       <c r="S768" s="1"/>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="2"/>
@@ -45410,7 +45410,7 @@
       <c r="R769" s="2"/>
       <c r="S769" s="1"/>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="2"/>
@@ -45431,7 +45431,7 @@
       <c r="R770" s="2"/>
       <c r="S770" s="1"/>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="2"/>
@@ -45452,7 +45452,7 @@
       <c r="R771" s="2"/>
       <c r="S771" s="1"/>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="2"/>
@@ -45473,7 +45473,7 @@
       <c r="R772" s="2"/>
       <c r="S772" s="1"/>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="2"/>
@@ -45494,7 +45494,7 @@
       <c r="R773" s="2"/>
       <c r="S773" s="1"/>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="2"/>
@@ -45515,7 +45515,7 @@
       <c r="R774" s="2"/>
       <c r="S774" s="1"/>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="2"/>
@@ -45536,7 +45536,7 @@
       <c r="R775" s="2"/>
       <c r="S775" s="1"/>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="2"/>
@@ -45557,7 +45557,7 @@
       <c r="R776" s="2"/>
       <c r="S776" s="1"/>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="2"/>
@@ -45578,7 +45578,7 @@
       <c r="R777" s="2"/>
       <c r="S777" s="1"/>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="2"/>
@@ -45599,7 +45599,7 @@
       <c r="R778" s="2"/>
       <c r="S778" s="1"/>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="2"/>
@@ -45620,7 +45620,7 @@
       <c r="R779" s="2"/>
       <c r="S779" s="1"/>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="2"/>
@@ -45641,7 +45641,7 @@
       <c r="R780" s="2"/>
       <c r="S780" s="1"/>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="2"/>
@@ -45662,7 +45662,7 @@
       <c r="R781" s="2"/>
       <c r="S781" s="1"/>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="2"/>
@@ -45683,7 +45683,7 @@
       <c r="R782" s="2"/>
       <c r="S782" s="1"/>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="2"/>
@@ -45704,7 +45704,7 @@
       <c r="R783" s="2"/>
       <c r="S783" s="1"/>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="2"/>
@@ -45725,7 +45725,7 @@
       <c r="R784" s="2"/>
       <c r="S784" s="1"/>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="2"/>
@@ -45746,7 +45746,7 @@
       <c r="R785" s="2"/>
       <c r="S785" s="1"/>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="2"/>
@@ -45767,7 +45767,7 @@
       <c r="R786" s="2"/>
       <c r="S786" s="1"/>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="2"/>
@@ -45788,7 +45788,7 @@
       <c r="R787" s="2"/>
       <c r="S787" s="1"/>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="2"/>
@@ -45809,7 +45809,7 @@
       <c r="R788" s="2"/>
       <c r="S788" s="1"/>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="2"/>
@@ -45830,7 +45830,7 @@
       <c r="R789" s="2"/>
       <c r="S789" s="1"/>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="2"/>
@@ -45851,7 +45851,7 @@
       <c r="R790" s="2"/>
       <c r="S790" s="1"/>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="2"/>
@@ -45872,7 +45872,7 @@
       <c r="R791" s="2"/>
       <c r="S791" s="1"/>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="2"/>
@@ -45893,7 +45893,7 @@
       <c r="R792" s="2"/>
       <c r="S792" s="1"/>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="2"/>
@@ -45914,7 +45914,7 @@
       <c r="R793" s="2"/>
       <c r="S793" s="1"/>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="2"/>
@@ -45935,7 +45935,7 @@
       <c r="R794" s="2"/>
       <c r="S794" s="1"/>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="2"/>
@@ -45956,7 +45956,7 @@
       <c r="R795" s="2"/>
       <c r="S795" s="1"/>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="2"/>
@@ -45977,7 +45977,7 @@
       <c r="R796" s="2"/>
       <c r="S796" s="1"/>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="2"/>
@@ -45998,7 +45998,7 @@
       <c r="R797" s="2"/>
       <c r="S797" s="1"/>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="2"/>
@@ -46019,7 +46019,7 @@
       <c r="R798" s="2"/>
       <c r="S798" s="1"/>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="2"/>
@@ -46040,7 +46040,7 @@
       <c r="R799" s="2"/>
       <c r="S799" s="1"/>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="2"/>
@@ -46061,7 +46061,7 @@
       <c r="R800" s="2"/>
       <c r="S800" s="1"/>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="2"/>
@@ -46082,7 +46082,7 @@
       <c r="R801" s="2"/>
       <c r="S801" s="1"/>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="2"/>
@@ -46103,7 +46103,7 @@
       <c r="R802" s="2"/>
       <c r="S802" s="1"/>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="2"/>
@@ -46124,7 +46124,7 @@
       <c r="R803" s="2"/>
       <c r="S803" s="1"/>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="2"/>
@@ -46145,7 +46145,7 @@
       <c r="R804" s="2"/>
       <c r="S804" s="1"/>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="2"/>
@@ -46166,7 +46166,7 @@
       <c r="R805" s="2"/>
       <c r="S805" s="1"/>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="2"/>
@@ -46187,7 +46187,7 @@
       <c r="R806" s="2"/>
       <c r="S806" s="1"/>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="2"/>
@@ -46208,7 +46208,7 @@
       <c r="R807" s="2"/>
       <c r="S807" s="1"/>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="2"/>
@@ -46229,7 +46229,7 @@
       <c r="R808" s="2"/>
       <c r="S808" s="1"/>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="2"/>
@@ -46250,7 +46250,7 @@
       <c r="R809" s="2"/>
       <c r="S809" s="1"/>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="2"/>
@@ -46271,7 +46271,7 @@
       <c r="R810" s="2"/>
       <c r="S810" s="1"/>
     </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="2"/>
@@ -46292,7 +46292,7 @@
       <c r="R811" s="2"/>
       <c r="S811" s="1"/>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="2"/>
@@ -46313,7 +46313,7 @@
       <c r="R812" s="2"/>
       <c r="S812" s="1"/>
     </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="2"/>
@@ -46334,7 +46334,7 @@
       <c r="R813" s="2"/>
       <c r="S813" s="1"/>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="2"/>
@@ -46355,7 +46355,7 @@
       <c r="R814" s="2"/>
       <c r="S814" s="1"/>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="2"/>
@@ -46376,7 +46376,7 @@
       <c r="R815" s="2"/>
       <c r="S815" s="1"/>
     </row>
-    <row r="816" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="2"/>
@@ -46397,7 +46397,7 @@
       <c r="R816" s="2"/>
       <c r="S816" s="1"/>
     </row>
-    <row r="817" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="2"/>
@@ -46418,7 +46418,7 @@
       <c r="R817" s="2"/>
       <c r="S817" s="1"/>
     </row>
-    <row r="818" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="2"/>
@@ -46439,7 +46439,7 @@
       <c r="R818" s="2"/>
       <c r="S818" s="1"/>
     </row>
-    <row r="819" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="2"/>
@@ -46460,7 +46460,7 @@
       <c r="R819" s="2"/>
       <c r="S819" s="1"/>
     </row>
-    <row r="820" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="2"/>
@@ -46481,7 +46481,7 @@
       <c r="R820" s="2"/>
       <c r="S820" s="1"/>
     </row>
-    <row r="821" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="2"/>
@@ -46502,7 +46502,7 @@
       <c r="R821" s="2"/>
       <c r="S821" s="1"/>
     </row>
-    <row r="822" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="2"/>
@@ -46523,7 +46523,7 @@
       <c r="R822" s="2"/>
       <c r="S822" s="1"/>
     </row>
-    <row r="823" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="2"/>
@@ -46544,7 +46544,7 @@
       <c r="R823" s="2"/>
       <c r="S823" s="1"/>
     </row>
-    <row r="824" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="2"/>
@@ -46565,7 +46565,7 @@
       <c r="R824" s="2"/>
       <c r="S824" s="1"/>
     </row>
-    <row r="825" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="2"/>
@@ -46586,7 +46586,7 @@
       <c r="R825" s="2"/>
       <c r="S825" s="1"/>
     </row>
-    <row r="826" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="2"/>
@@ -46607,7 +46607,7 @@
       <c r="R826" s="2"/>
       <c r="S826" s="1"/>
     </row>
-    <row r="827" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="2"/>
@@ -46628,7 +46628,7 @@
       <c r="R827" s="2"/>
       <c r="S827" s="1"/>
     </row>
-    <row r="828" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="2"/>
@@ -46649,7 +46649,7 @@
       <c r="R828" s="2"/>
       <c r="S828" s="1"/>
     </row>
-    <row r="829" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="2"/>
@@ -46670,7 +46670,7 @@
       <c r="R829" s="2"/>
       <c r="S829" s="1"/>
     </row>
-    <row r="830" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="2"/>
@@ -46691,7 +46691,7 @@
       <c r="R830" s="2"/>
       <c r="S830" s="1"/>
     </row>
-    <row r="831" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="2"/>
@@ -46712,7 +46712,7 @@
       <c r="R831" s="2"/>
       <c r="S831" s="1"/>
     </row>
-    <row r="832" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="2"/>
@@ -46733,7 +46733,7 @@
       <c r="R832" s="2"/>
       <c r="S832" s="1"/>
     </row>
-    <row r="833" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="2"/>
@@ -46754,7 +46754,7 @@
       <c r="R833" s="2"/>
       <c r="S833" s="1"/>
     </row>
-    <row r="834" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="2"/>
@@ -46775,7 +46775,7 @@
       <c r="R834" s="2"/>
       <c r="S834" s="1"/>
     </row>
-    <row r="835" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="2"/>
@@ -46796,7 +46796,7 @@
       <c r="R835" s="2"/>
       <c r="S835" s="1"/>
     </row>
-    <row r="836" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="2"/>
@@ -46817,7 +46817,7 @@
       <c r="R836" s="2"/>
       <c r="S836" s="1"/>
     </row>
-    <row r="837" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="2"/>
@@ -46838,7 +46838,7 @@
       <c r="R837" s="2"/>
       <c r="S837" s="1"/>
     </row>
-    <row r="838" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="2"/>
@@ -46859,7 +46859,7 @@
       <c r="R838" s="2"/>
       <c r="S838" s="1"/>
     </row>
-    <row r="839" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="2"/>
@@ -46880,7 +46880,7 @@
       <c r="R839" s="2"/>
       <c r="S839" s="1"/>
     </row>
-    <row r="840" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="2"/>
@@ -46901,7 +46901,7 @@
       <c r="R840" s="2"/>
       <c r="S840" s="1"/>
     </row>
-    <row r="841" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="2"/>
@@ -46922,7 +46922,7 @@
       <c r="R841" s="2"/>
       <c r="S841" s="1"/>
     </row>
-    <row r="842" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="2"/>
@@ -46943,7 +46943,7 @@
       <c r="R842" s="2"/>
       <c r="S842" s="1"/>
     </row>
-    <row r="843" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="2"/>
@@ -46964,7 +46964,7 @@
       <c r="R843" s="2"/>
       <c r="S843" s="1"/>
     </row>
-    <row r="844" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="2"/>
@@ -46985,7 +46985,7 @@
       <c r="R844" s="2"/>
       <c r="S844" s="1"/>
     </row>
-    <row r="845" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="2"/>
@@ -47006,7 +47006,7 @@
       <c r="R845" s="2"/>
       <c r="S845" s="1"/>
     </row>
-    <row r="846" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="2"/>
@@ -47027,7 +47027,7 @@
       <c r="R846" s="2"/>
       <c r="S846" s="1"/>
     </row>
-    <row r="847" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="2"/>
@@ -47048,7 +47048,7 @@
       <c r="R847" s="2"/>
       <c r="S847" s="1"/>
     </row>
-    <row r="848" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="2"/>
@@ -47069,7 +47069,7 @@
       <c r="R848" s="2"/>
       <c r="S848" s="1"/>
     </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="2"/>
@@ -47090,7 +47090,7 @@
       <c r="R849" s="2"/>
       <c r="S849" s="1"/>
     </row>
-    <row r="850" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="2"/>
@@ -47111,7 +47111,7 @@
       <c r="R850" s="2"/>
       <c r="S850" s="1"/>
     </row>
-    <row r="851" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="2"/>
@@ -47132,7 +47132,7 @@
       <c r="R851" s="2"/>
       <c r="S851" s="1"/>
     </row>
-    <row r="852" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="2"/>
@@ -47153,7 +47153,7 @@
       <c r="R852" s="2"/>
       <c r="S852" s="1"/>
     </row>
-    <row r="853" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="2"/>
@@ -47174,7 +47174,7 @@
       <c r="R853" s="2"/>
       <c r="S853" s="1"/>
     </row>
-    <row r="854" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="2"/>
@@ -47195,7 +47195,7 @@
       <c r="R854" s="2"/>
       <c r="S854" s="1"/>
     </row>
-    <row r="855" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="2"/>
@@ -47216,7 +47216,7 @@
       <c r="R855" s="2"/>
       <c r="S855" s="1"/>
     </row>
-    <row r="856" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="2"/>
@@ -47237,7 +47237,7 @@
       <c r="R856" s="2"/>
       <c r="S856" s="1"/>
     </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="2"/>
@@ -47258,7 +47258,7 @@
       <c r="R857" s="2"/>
       <c r="S857" s="1"/>
     </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="2"/>
@@ -47279,7 +47279,7 @@
       <c r="R858" s="2"/>
       <c r="S858" s="1"/>
     </row>
-    <row r="859" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="2"/>
@@ -47300,7 +47300,7 @@
       <c r="R859" s="2"/>
       <c r="S859" s="1"/>
     </row>
-    <row r="860" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="2"/>
@@ -47321,7 +47321,7 @@
       <c r="R860" s="2"/>
       <c r="S860" s="1"/>
     </row>
-    <row r="861" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="2"/>
@@ -47342,7 +47342,7 @@
       <c r="R861" s="2"/>
       <c r="S861" s="1"/>
     </row>
-    <row r="862" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="2"/>
@@ -47363,7 +47363,7 @@
       <c r="R862" s="2"/>
       <c r="S862" s="1"/>
     </row>
-    <row r="863" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="2"/>
@@ -47395,21 +47395,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6b43722-16b9-40ab-9842-b5379c0457c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002806E127288E664784213818CB5C5DCA" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9472edbfb0bcde4de3e90f0b05cc24dd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b6b43722-16b9-40ab-9842-b5379c0457c4" xmlns:ns3="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b7b4977b1ff0ad45e40a4c66aea9891" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002806E127288E664784213818CB5C5DCA" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="758d5e70f10e8c64315574331df12320">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b6b43722-16b9-40ab-9842-b5379c0457c4" xmlns:ns3="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db7e7268d55e0e6d0c9aaaa59c936ac6" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="b6b43722-16b9-40ab-9842-b5379c0457c4"/>
     <xsd:import namespace="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f"/>
@@ -47679,7 +47666,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -47688,20 +47675,21 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C19B9A-3DEB-4A94-8DBB-9B17AFD0C3ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f"/>
-    <ds:schemaRef ds:uri="b6b43722-16b9-40ab-9842-b5379c0457c4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6b43722-16b9-40ab-9842-b5379c0457c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B0A1A0-4F95-4A66-A744-940D6200A567}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A8DB77-270E-43FD-ABAB-147192BD9A39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -47720,10 +47708,22 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF8C66F-B732-4C0E-A6BD-95EE60200BF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C19B9A-3DEB-4A94-8DBB-9B17AFD0C3ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3b95cb2c-15d4-40b4-a5ea-5b363946ee4f"/>
+    <ds:schemaRef ds:uri="b6b43722-16b9-40ab-9842-b5379c0457c4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>